--- a/Assets/Resources/Excels/PlayerCardBag.xlsx
+++ b/Assets/Resources/Excels/PlayerCardBag.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -35,7 +35,25 @@
     <t>int</t>
   </si>
   <si>
-    <t>20002</t>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>10007</t>
   </si>
 </sst>
 </file>
@@ -969,13 +987,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1000,6 +1018,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
